--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="12540" windowWidth="21860" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,28 +210,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -526,57 +535,57 @@
     <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="5" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="5" t="s">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="7"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -588,7 +597,7 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -597,10 +606,10 @@
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -609,10 +618,10 @@
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -621,10 +630,10 @@
       <c r="Q3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="3" t="s">
@@ -633,10 +642,10 @@
       <c r="U3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="X3" s="3" t="s">
@@ -645,18 +654,18 @@
       <c r="Y3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.75</v>
       </c>
       <c r="D4" s="3">
@@ -668,7 +677,7 @@
       <c r="F4" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>0.72</v>
       </c>
       <c r="H4" s="3">
@@ -677,10 +686,10 @@
       <c r="I4" s="3">
         <v>0.74</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.7</v>
       </c>
       <c r="L4" s="3">
@@ -689,10 +698,10 @@
       <c r="M4" s="3">
         <v>0.78</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>0.75</v>
       </c>
       <c r="P4" s="3">
@@ -701,10 +710,10 @@
       <c r="Q4" s="3">
         <v>0.81</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>0.69</v>
       </c>
       <c r="T4" s="3">
@@ -713,10 +722,10 @@
       <c r="U4" s="3">
         <v>0.71</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <v>0.65</v>
       </c>
       <c r="X4" s="3">
@@ -725,18 +734,18 @@
       <c r="Y4" s="3">
         <v>0.61</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.8</v>
       </c>
       <c r="D5" s="3">
@@ -748,7 +757,7 @@
       <c r="F5" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.76</v>
       </c>
       <c r="H5" s="3">
@@ -757,10 +766,10 @@
       <c r="I5" s="3">
         <v>0.77</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.75</v>
       </c>
       <c r="L5" s="3">
@@ -769,10 +778,10 @@
       <c r="M5" s="3">
         <v>0.81</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>0.79</v>
       </c>
       <c r="P5" s="3">
@@ -781,10 +790,10 @@
       <c r="Q5" s="3">
         <v>0.84</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>0.74</v>
       </c>
       <c r="T5" s="3">
@@ -793,10 +802,10 @@
       <c r="U5" s="3">
         <v>0.74</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>0.7</v>
       </c>
       <c r="X5" s="3">
@@ -805,18 +814,18 @@
       <c r="Y5" s="3">
         <v>0.63</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.76</v>
       </c>
       <c r="D6" s="4">
@@ -828,7 +837,7 @@
       <c r="F6" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.73</v>
       </c>
       <c r="H6" s="3">
@@ -837,10 +846,10 @@
       <c r="I6" s="3">
         <v>0.75</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>0.06</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>0.73</v>
       </c>
       <c r="L6" s="3">
@@ -849,10 +858,10 @@
       <c r="M6" s="3">
         <v>0.8</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>0.77</v>
       </c>
       <c r="P6" s="3">
@@ -861,10 +870,10 @@
       <c r="Q6" s="3">
         <v>0.82</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>0.72</v>
       </c>
       <c r="T6" s="3">
@@ -873,10 +882,10 @@
       <c r="U6" s="3">
         <v>0.72</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="8">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>0.67</v>
       </c>
       <c r="X6" s="3">
@@ -885,327 +894,333 @@
       <c r="Y6" s="3">
         <v>0.62</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.88</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>1.71</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>0.73</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.83</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>1.29</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>0.81</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.83</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.22</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>0.86</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>5.5E-2</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>0.88</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>0.89</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="10">
         <v>0.82</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="11">
         <v>1.3</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="11">
         <v>0.79</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <v>0.79</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="11">
         <v>1.54</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="11">
         <v>0.69</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
+    <row r="8" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1.48</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="F8" s="13">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="J8" s="13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="R8" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="T8" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="V8" s="13">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="X8" s="13">
+        <v>1.39</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="5" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="5" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
-    <row r="10" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V11" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.71</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.39</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="F11" s="9">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="J11" s="9">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="N11" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0.46</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.67</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="R11" s="9">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="S11" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="V11" s="9">
-        <v>8.3000000000000004E-2</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.79</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.71</v>
       </c>
       <c r="D12" s="3">
         <v>1.39</v>
       </c>
       <c r="E12" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="F12" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G12" s="7">
         <v>0.6</v>
-      </c>
-      <c r="F12" s="9">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.66</v>
       </c>
       <c r="H12" s="3">
         <v>1.56</v>
       </c>
       <c r="I12" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="K12" s="8">
         <v>0.41</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.4</v>
       </c>
       <c r="L12" s="3">
         <v>0.45</v>
       </c>
       <c r="M12" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="N12" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0.5</v>
+        <v>0.96</v>
+      </c>
+      <c r="N12" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.46</v>
       </c>
       <c r="P12" s="3">
         <v>0.67</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="R12" s="9">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0.46</v>
+        <v>0.89</v>
+      </c>
+      <c r="R12" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.45</v>
       </c>
       <c r="T12" s="3">
         <v>0.48</v>
@@ -1213,7 +1228,7 @@
       <c r="U12" s="3">
         <v>0.99</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="W12" s="3"/>
@@ -1221,63 +1236,63 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="D13" s="3">
         <v>1.39</v>
       </c>
       <c r="E13" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F13" s="9">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.62</v>
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.66</v>
       </c>
       <c r="H13" s="3">
         <v>1.56</v>
       </c>
       <c r="I13" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="J13" s="9">
-        <v>2.7E-2</v>
-      </c>
-      <c r="K13" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K13" s="7">
         <v>0.41</v>
       </c>
       <c r="L13" s="3">
         <v>0.45</v>
       </c>
       <c r="M13" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="N13" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="N13" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O13" s="8">
-        <v>0.46</v>
+      <c r="O13" s="7">
+        <v>0.5</v>
       </c>
       <c r="P13" s="3">
         <v>0.67</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.89</v>
-      </c>
-      <c r="R13" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="R13" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="S13" s="8">
-        <v>0.45</v>
+      <c r="S13" s="7">
+        <v>0.46</v>
       </c>
       <c r="T13" s="3">
         <v>0.48</v>
@@ -1285,7 +1300,7 @@
       <c r="U13" s="3">
         <v>0.99</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="W13" s="3"/>
@@ -1293,92 +1308,240 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>0</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="D14" s="4">
         <v>1.39</v>
       </c>
-      <c r="E14" s="12">
-        <v>0.64</v>
-      </c>
-      <c r="F14" s="13">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.74</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="E14" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="H14" s="3">
         <v>1.56</v>
       </c>
-      <c r="I14" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="13">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="I14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K14" s="7">
         <v>0.41</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="3">
         <v>0.45</v>
       </c>
-      <c r="M14" s="12">
-        <v>0.97</v>
-      </c>
-      <c r="N14" s="13">
+      <c r="M14" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="N14" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O14" s="11">
-        <v>0.51</v>
-      </c>
-      <c r="P14" s="12">
+      <c r="O14" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="P14" s="3">
         <v>0.67</v>
       </c>
-      <c r="Q14" s="12">
-        <v>0.91</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="T14" s="12">
+      <c r="Q14" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="R14" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="T14" s="3">
         <v>0.48</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="3">
         <v>0.99</v>
       </c>
-      <c r="V14" s="13">
-        <v>8.2000000000000003E-2</v>
+      <c r="V14" s="8">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
+    <row r="15" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="F15" s="12">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.56</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="N15" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="V15" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="W10:Z10"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="12540" windowWidth="21860" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="13140" windowWidth="22540" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
   <si>
     <t>Flow</t>
   </si>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +244,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="K26" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="131" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1514,7 +1520,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="11:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="1">
         <v>0.53</v>
       </c>
@@ -1528,9 +1534,955 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="16"/>
+    </row>
+    <row r="21" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1.71</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.113</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="J23" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="N23" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1.38</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.109</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="T23" s="13">
+        <v>1.57</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="V23" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="X23" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>0.61</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1.71</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.113</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="J24" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="N24" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="P24" s="13">
+        <v>1.38</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="T24" s="13">
+        <v>1.57</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="V24" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="X24" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1.71</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.111</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="J25" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="L25" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="N25" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="P25" s="13">
+        <v>1.38</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="T25" s="13">
+        <v>1.57</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="V25" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="X25" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1.71</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="J26" s="12">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1.56</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="N26" s="12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="P26" s="11">
+        <v>1.38</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="T26" s="13">
+        <v>1.57</v>
+      </c>
+      <c r="U26" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="V26" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="X26" s="11">
+        <v>1.54</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+    </row>
+    <row r="29" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+    </row>
+    <row r="30" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+    </row>
+    <row r="31" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+    </row>
+    <row r="32" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.252</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="L32" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.501</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="P32" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="T32" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="V32" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+    </row>
+    <row r="33" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L33" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.501</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="R33" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="T33" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+    </row>
+    <row r="34" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.251</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="L34" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="P34" s="13">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="R34" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="T34" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="U34" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+    </row>
+    <row r="35" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.248</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="L35" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="P35" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="R35" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="S35" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="T35" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="U35" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="V35" s="12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+    </row>
+    <row r="36" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="O36" s="5"/>
+      <c r="S36" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="35">
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
     <mergeCell ref="W10:Z10"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:N2"/>
